--- a/target/test-classes/excel/AutomationCreation.xlsx
+++ b/target/test-classes/excel/AutomationCreation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="16056" windowHeight="3948"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16050" windowHeight="3945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,30 +12,50 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Nathe</t>
+  </si>
+  <si>
+    <t>Nathe1</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>vaibhav.nathe@gmail.com</t>
+  </si>
+  <si>
+    <t>Vn@11006020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,22 +384,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -386,13 +414,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -402,7 +458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
